--- a/资料/测试/遥控大师小苹果测试用例初稿.xlsx
+++ b/资料/测试/遥控大师小苹果测试用例初稿.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C pan\体验内容\20190716 - 新小苹果\3.测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Project\small-apple\资料\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A07FF16-6A61-43A0-81EA-5BAA039E1D2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="14985" windowHeight="8580"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小苹果APP签收用例" sheetId="23" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="198">
   <si>
     <t>..</t>
   </si>
@@ -210,10 +211,6 @@
     <t>1、在HiLink/非HiLink组网；
 2、手机系统语言切换到英文；
 3、智家APP添加上小苹果；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在HiLink/非HiLink组网；</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1008,15 +1005,27 @@
 12、场景可以正常执行；</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释原因</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1181,6 +1190,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1315,7 +1345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1460,35 +1490,74 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="4" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="40% - 着色 6 2" xfId="4"/>
-    <cellStyle name="40% - 着色 6 2 2" xfId="9"/>
-    <cellStyle name="40% - 着色 6 2 2 2" xfId="19"/>
-    <cellStyle name="40% - 着色 6 2 3" xfId="16"/>
-    <cellStyle name="40% - 着色 6 2 4" xfId="22"/>
-    <cellStyle name="40% - 着色 6 3" xfId="12"/>
-    <cellStyle name="40% - 着色 6 3 2" xfId="17"/>
-    <cellStyle name="40% - 着色 6 4" xfId="13"/>
-    <cellStyle name="40% - 着色 6 4 2" xfId="20"/>
+    <cellStyle name="40% - 着色 6 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="40% - 着色 6 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 着色 6 2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="40% - 着色 6 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="40% - 着色 6 2 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="40% - 着色 6 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 着色 6 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 6 4" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 着色 6 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 2 2 2" xfId="10"/>
-    <cellStyle name="常规 2 2 3" xfId="24"/>
-    <cellStyle name="常规 2 4" xfId="6"/>
-    <cellStyle name="常规 2 4 2" xfId="14"/>
-    <cellStyle name="常规 2 5 2 2" xfId="23"/>
-    <cellStyle name="常规 2 5 2 3" xfId="26"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="8"/>
-    <cellStyle name="常规 3 2 2" xfId="18"/>
-    <cellStyle name="常规 3 2 3" xfId="21"/>
-    <cellStyle name="常规 3 3" xfId="25"/>
-    <cellStyle name="常规 4" xfId="7"/>
-    <cellStyle name="常规 4 2" xfId="15"/>
-    <cellStyle name="常规 5" xfId="11"/>
-    <cellStyle name="常规_Sheet1" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 2 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 2 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 2 5 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 3 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 3 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1504,7 +1573,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1579,6 +1648,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1614,6 +1700,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1789,38 +1892,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="54.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="43.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="11" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.08203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="17" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="3" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
@@ -1860,7 +1963,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1884,7 +1987,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +2003,7 @@
       <c r="I3" s="32"/>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:18" ht="99" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="99" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1909,24 +2012,26 @@
         <v>20</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="G4" s="42" t="s">
         <v>56</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>57</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="34" t="s">
+        <v>195</v>
+      </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>1</v>
       </c>
@@ -1935,42 +2040,46 @@
         <v>21</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:18" ht="66" x14ac:dyDescent="0.15">
+      <c r="I5" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>92</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>93</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>2</v>
@@ -1978,7 +2087,7 @@
       <c r="I6" s="34"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +2110,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -2010,16 +2119,16 @@
         <v>22</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="H8" s="47" t="s">
         <v>2</v>
@@ -2035,7 +2144,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
@@ -2044,16 +2153,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="37" t="s">
+      <c r="G9" s="37" t="s">
         <v>125</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>126</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="9"/>
@@ -2067,7 +2176,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="99" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>16</v>
       </c>
@@ -2076,16 +2185,16 @@
         <v>24</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="G10" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>111</v>
       </c>
       <c r="H10" s="47" t="s">
         <v>2</v>
@@ -2101,7 +2210,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -2110,16 +2219,16 @@
         <v>24</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="H11" s="47" t="s">
         <v>2</v>
@@ -2135,7 +2244,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="13" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -2144,16 +2253,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H12" s="47" t="s">
         <v>2</v>
@@ -2169,7 +2278,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="13" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -2178,16 +2287,16 @@
         <v>25</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="47" t="s">
         <v>2</v>
@@ -2203,7 +2312,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
@@ -2212,16 +2321,16 @@
         <v>26</v>
       </c>
       <c r="D14" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>117</v>
-      </c>
       <c r="F14" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="47" t="s">
         <v>2</v>
@@ -2237,7 +2346,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="66" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -2246,16 +2355,16 @@
         <v>27</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="47" t="s">
         <v>2</v>
@@ -2271,7 +2380,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -2280,16 +2389,16 @@
         <v>28</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>132</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>133</v>
       </c>
       <c r="H16" s="47" t="s">
         <v>2</v>
@@ -2305,7 +2414,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
@@ -2314,16 +2423,16 @@
         <v>29</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="47" t="s">
         <v>2</v>
@@ -2339,7 +2448,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>16</v>
       </c>
@@ -2348,16 +2457,16 @@
         <v>30</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" s="47" t="s">
         <v>2</v>
@@ -2373,7 +2482,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>16</v>
       </c>
@@ -2382,16 +2491,16 @@
         <v>31</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H19" s="47" t="s">
         <v>2</v>
@@ -2407,7 +2516,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" s="13" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="13" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>16</v>
       </c>
@@ -2416,16 +2525,16 @@
         <v>32</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="38" t="s">
         <v>140</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>141</v>
       </c>
       <c r="H20" s="47" t="s">
         <v>2</v>
@@ -2441,7 +2550,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>16</v>
       </c>
@@ -2450,16 +2559,16 @@
         <v>33</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="47" t="s">
         <v>2</v>
@@ -2475,7 +2584,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>16</v>
       </c>
@@ -2484,16 +2593,16 @@
         <v>34</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="47" t="s">
         <v>2</v>
@@ -2509,7 +2618,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" ht="66" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
@@ -2518,16 +2627,16 @@
         <v>35</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="G23" s="38" t="s">
         <v>145</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>146</v>
       </c>
       <c r="H23" s="47" t="s">
         <v>2</v>
@@ -2543,7 +2652,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>16</v>
       </c>
@@ -2552,16 +2661,16 @@
         <v>36</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H24" s="47" t="s">
         <v>2</v>
@@ -2577,7 +2686,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" s="13" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>16</v>
       </c>
@@ -2586,16 +2695,16 @@
         <v>37</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H25" s="47" t="s">
         <v>2</v>
@@ -2611,7 +2720,7 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" s="13" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="13" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>16</v>
       </c>
@@ -2620,16 +2729,16 @@
         <v>38</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" s="47" t="s">
         <v>2</v>
@@ -2645,7 +2754,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" s="13" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>16</v>
       </c>
@@ -2654,16 +2763,16 @@
         <v>39</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="47" t="s">
         <v>2</v>
@@ -2679,7 +2788,7 @@
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="1:18" s="13" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" s="13" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>16</v>
       </c>
@@ -2688,16 +2797,16 @@
         <v>40</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="G28" s="37" t="s">
         <v>165</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="47" t="s">
         <v>2</v>
@@ -2713,7 +2822,7 @@
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="1:18" s="13" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" s="13" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>16</v>
       </c>
@@ -2722,16 +2831,16 @@
         <v>41</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>162</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>163</v>
       </c>
       <c r="H29" s="47" t="s">
         <v>2</v>
@@ -2747,7 +2856,7 @@
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +2872,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:18" ht="66" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>1</v>
       </c>
@@ -2772,16 +2881,16 @@
         <v>44</v>
       </c>
       <c r="D31" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="F31" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="42" t="s">
         <v>177</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>178</v>
       </c>
       <c r="H31" s="47" t="s">
         <v>2</v>
@@ -2789,25 +2898,25 @@
       <c r="I31" s="34"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="1:18" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H32" s="47" t="s">
         <v>2</v>
@@ -2815,25 +2924,25 @@
       <c r="I32" s="34"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H33" s="47" t="s">
         <v>2</v>
@@ -2841,25 +2950,25 @@
       <c r="I33" s="34"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H34" s="47" t="s">
         <v>2</v>
@@ -2867,25 +2976,25 @@
       <c r="I34" s="34"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H35" s="47" t="s">
         <v>2</v>
@@ -2893,25 +3002,25 @@
       <c r="I35" s="34"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H36" s="47" t="s">
         <v>2</v>
@@ -2919,25 +3028,25 @@
       <c r="I36" s="34"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H37" s="47" t="s">
         <v>2</v>
@@ -2945,25 +3054,25 @@
       <c r="I37" s="34"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F38" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>190</v>
       </c>
       <c r="H38" s="47" t="s">
         <v>2</v>
@@ -2971,25 +3080,25 @@
       <c r="I38" s="34"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="H39" s="47" t="s">
         <v>2</v>
@@ -2997,127 +3106,142 @@
       <c r="I39" s="34"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="s">
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+    </row>
+    <row r="41" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="42" t="s">
+      <c r="B41" s="59"/>
+      <c r="C41" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="42" t="s">
+      <c r="E41" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="H41" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="60"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+    </row>
+    <row r="42" spans="1:13" ht="99" x14ac:dyDescent="0.25">
+      <c r="A42" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="F42" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" ht="99" x14ac:dyDescent="0.15">
-      <c r="A42" s="29" t="s">
+      <c r="I42" s="60"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+    </row>
+    <row r="43" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="33" t="s">
+      <c r="B43" s="59"/>
+      <c r="C43" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="29" t="s">
+      <c r="I43" s="60"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+    </row>
+    <row r="44" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="42" t="s">
+      <c r="B44" s="59"/>
+      <c r="C44" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="D44" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I44" s="60"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3257,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:10" ht="99" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" ht="99" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>1</v>
       </c>
@@ -3142,16 +3266,16 @@
         <v>45</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="G46" s="42" t="s">
         <v>85</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>86</v>
       </c>
       <c r="H46" s="33" t="s">
         <v>2</v>
@@ -3159,7 +3283,7 @@
       <c r="I46" s="34"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>1</v>
       </c>
@@ -3168,16 +3292,16 @@
         <v>46</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="42" t="s">
         <v>87</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>88</v>
       </c>
       <c r="H47" s="33" t="s">
         <v>2</v>
@@ -3185,7 +3309,7 @@
       <c r="I47" s="34"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="33"/>
       <c r="C48" s="42"/>
@@ -3197,7 +3321,7 @@
       <c r="I48" s="34"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="26"/>
       <c r="C49" s="43"/>
@@ -3209,7 +3333,7 @@
       <c r="I49" s="23"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="26"/>
       <c r="C50" s="43"/>
@@ -3221,7 +3345,7 @@
       <c r="I50" s="23"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="26"/>
       <c r="C51" s="43"/>
@@ -3233,7 +3357,7 @@
       <c r="I51" s="23"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="26"/>
       <c r="C52" s="43"/>
@@ -3245,7 +3369,7 @@
       <c r="I52" s="23"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
       <c r="B53" s="26"/>
       <c r="C53" s="43"/>
@@ -3257,7 +3381,7 @@
       <c r="I53" s="23"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="26"/>
       <c r="C54" s="43"/>
@@ -3269,7 +3393,7 @@
       <c r="I54" s="23"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="26"/>
       <c r="C55" s="43"/>
@@ -3281,7 +3405,7 @@
       <c r="I55" s="23"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="26"/>
       <c r="C56" s="43"/>
@@ -3293,7 +3417,7 @@
       <c r="I56" s="23"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="26"/>
       <c r="C57" s="23"/>
@@ -3305,7 +3429,7 @@
       <c r="I57" s="23"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="29"/>
       <c r="B58" s="26"/>
       <c r="C58" s="23"/>
@@ -3317,7 +3441,7 @@
       <c r="I58" s="23"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
       <c r="B59" s="26"/>
       <c r="C59" s="23"/>
@@ -3329,7 +3453,7 @@
       <c r="I59" s="23"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
       <c r="B60" s="26"/>
       <c r="C60" s="23"/>
@@ -3341,7 +3465,7 @@
       <c r="I60" s="23"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="26"/>
       <c r="C61" s="23"/>
@@ -3353,7 +3477,7 @@
       <c r="I61" s="23"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
       <c r="B62" s="26"/>
       <c r="C62" s="23"/>
@@ -3365,7 +3489,7 @@
       <c r="I62" s="23"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
       <c r="B63" s="27"/>
       <c r="C63" s="23"/>
@@ -3377,7 +3501,7 @@
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
       <c r="B64" s="27"/>
       <c r="C64" s="23"/>
@@ -3389,7 +3513,7 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
       <c r="B65" s="27"/>
       <c r="C65" s="23"/>
@@ -3401,7 +3525,7 @@
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
       <c r="B66" s="27"/>
       <c r="C66" s="23"/>
@@ -3413,7 +3537,7 @@
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
       <c r="B67" s="27"/>
       <c r="C67" s="23"/>
@@ -3425,7 +3549,7 @@
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="27"/>
       <c r="C68" s="23"/>
@@ -3437,7 +3561,7 @@
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
       <c r="B69" s="27"/>
       <c r="C69" s="23"/>
@@ -3449,7 +3573,7 @@
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="27"/>
       <c r="C70" s="23"/>
@@ -3461,7 +3585,7 @@
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="29"/>
       <c r="B71" s="27"/>
       <c r="C71" s="23"/>
@@ -3473,7 +3597,7 @@
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="29"/>
       <c r="B72" s="27"/>
       <c r="C72" s="23"/>
@@ -3485,7 +3609,7 @@
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="29"/>
       <c r="B73" s="27"/>
       <c r="C73" s="23"/>
@@ -3497,7 +3621,7 @@
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="29"/>
       <c r="B74" s="27"/>
       <c r="C74" s="23"/>
@@ -3509,7 +3633,7 @@
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="27"/>
       <c r="C75" s="23"/>
@@ -3521,7 +3645,7 @@
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="29"/>
       <c r="B76" s="27"/>
       <c r="C76" s="23"/>
@@ -3533,7 +3657,7 @@
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="29"/>
       <c r="B77" s="27"/>
       <c r="C77" s="23"/>
@@ -3545,7 +3669,7 @@
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
       <c r="B78" s="27"/>
       <c r="C78" s="23"/>
@@ -3557,7 +3681,7 @@
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
       <c r="B79" s="27"/>
       <c r="C79" s="23"/>
@@ -3569,7 +3693,7 @@
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
       <c r="B80" s="27"/>
       <c r="C80" s="23"/>
@@ -3581,7 +3705,7 @@
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="29"/>
       <c r="B81" s="27"/>
       <c r="C81" s="23"/>
@@ -3593,7 +3717,7 @@
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="29"/>
       <c r="B82" s="27"/>
       <c r="C82" s="23"/>
@@ -3605,7 +3729,7 @@
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
       <c r="B83" s="27"/>
       <c r="C83" s="23"/>
@@ -3617,7 +3741,7 @@
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="29"/>
       <c r="B84" s="27"/>
       <c r="C84" s="23"/>
@@ -3629,7 +3753,7 @@
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
       <c r="B85" s="27"/>
       <c r="C85" s="23"/>
@@ -3641,7 +3765,7 @@
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
       <c r="B86" s="27"/>
       <c r="C86" s="23"/>
@@ -3653,7 +3777,7 @@
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
       <c r="B87" s="27"/>
       <c r="C87" s="23"/>
@@ -3665,7 +3789,7 @@
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
       <c r="B88" s="27"/>
       <c r="C88" s="23"/>
@@ -3677,7 +3801,7 @@
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29"/>
       <c r="B89" s="27"/>
       <c r="C89" s="23"/>
@@ -3689,7 +3813,7 @@
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
       <c r="B90" s="27"/>
       <c r="C90" s="23"/>
@@ -3701,7 +3825,7 @@
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
       <c r="B91" s="27"/>
       <c r="C91" s="23"/>
@@ -3713,7 +3837,7 @@
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="29"/>
       <c r="B92" s="27"/>
       <c r="C92" s="23"/>
@@ -3725,7 +3849,7 @@
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
       <c r="B93" s="27"/>
       <c r="C93" s="23"/>
@@ -3737,7 +3861,7 @@
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
       <c r="B94" s="27"/>
       <c r="C94" s="23"/>
@@ -3749,7 +3873,7 @@
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
       <c r="B95" s="27"/>
       <c r="C95" s="23"/>
@@ -3761,7 +3885,7 @@
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
       <c r="B96" s="27"/>
       <c r="C96" s="23"/>
@@ -3773,7 +3897,7 @@
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
       <c r="B97" s="27"/>
       <c r="C97" s="23"/>
@@ -3785,7 +3909,7 @@
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="29"/>
       <c r="B98" s="27"/>
       <c r="C98" s="23"/>
@@ -3797,7 +3921,7 @@
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
       <c r="B99" s="27"/>
       <c r="C99" s="23"/>
@@ -3809,7 +3933,7 @@
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
       <c r="B100" s="27"/>
       <c r="C100" s="23"/>
@@ -3821,7 +3945,7 @@
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
       <c r="B101" s="27"/>
       <c r="C101" s="23"/>
@@ -3833,7 +3957,7 @@
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
       <c r="B102" s="27"/>
       <c r="C102" s="23"/>
@@ -3845,7 +3969,7 @@
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29"/>
       <c r="B103" s="27"/>
       <c r="C103" s="23"/>
@@ -3857,7 +3981,7 @@
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
       <c r="B104" s="27"/>
       <c r="C104" s="23"/>
@@ -3869,7 +3993,7 @@
       <c r="I104" s="20"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
       <c r="B105" s="27"/>
       <c r="C105" s="23"/>
@@ -3881,7 +4005,7 @@
       <c r="I105" s="20"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="29"/>
       <c r="B106" s="27"/>
       <c r="C106" s="23"/>
@@ -3893,7 +4017,7 @@
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
       <c r="B107" s="27"/>
       <c r="C107" s="23"/>
@@ -3905,7 +4029,7 @@
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29"/>
       <c r="B108" s="27"/>
       <c r="C108" s="23"/>
@@ -3917,7 +4041,7 @@
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
       <c r="B109" s="27"/>
       <c r="C109" s="23"/>
@@ -3929,7 +4053,7 @@
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
       <c r="B110" s="27"/>
       <c r="C110" s="23"/>
@@ -3941,7 +4065,7 @@
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29"/>
       <c r="B111" s="27"/>
       <c r="C111" s="23"/>
@@ -3953,7 +4077,7 @@
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="29"/>
       <c r="B112" s="27"/>
       <c r="C112" s="23"/>
@@ -3965,7 +4089,7 @@
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
       <c r="B113" s="27"/>
       <c r="C113" s="20"/>
@@ -3977,7 +4101,7 @@
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="29"/>
       <c r="B114" s="27"/>
       <c r="C114" s="20"/>
@@ -3989,7 +4113,7 @@
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
       <c r="B115" s="27"/>
       <c r="C115" s="20"/>
@@ -4001,7 +4125,7 @@
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
       <c r="B116" s="27"/>
       <c r="C116" s="20"/>
@@ -4013,7 +4137,7 @@
       <c r="I116" s="20"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
       <c r="B117" s="27"/>
       <c r="C117" s="20"/>
@@ -4025,7 +4149,7 @@
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
       <c r="B118" s="27"/>
       <c r="C118" s="20"/>
@@ -4037,7 +4161,7 @@
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
       <c r="B119" s="27"/>
       <c r="C119" s="20"/>
@@ -4049,7 +4173,7 @@
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
       <c r="B120" s="27"/>
       <c r="C120" s="20"/>
@@ -4061,7 +4185,7 @@
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
       <c r="B121" s="27"/>
       <c r="C121" s="20"/>
@@ -4073,7 +4197,7 @@
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
       <c r="B122" s="27"/>
       <c r="C122" s="20"/>
@@ -4085,7 +4209,7 @@
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
       <c r="B123" s="27"/>
       <c r="C123" s="20"/>
@@ -4097,7 +4221,7 @@
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="29"/>
       <c r="B124" s="27"/>
       <c r="C124" s="20"/>
@@ -4109,7 +4233,7 @@
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
       <c r="B125" s="27"/>
       <c r="C125" s="20"/>
@@ -4121,7 +4245,7 @@
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
       <c r="B126" s="27"/>
       <c r="C126" s="20"/>
@@ -4133,7 +4257,7 @@
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
       <c r="B127" s="27"/>
       <c r="C127" s="20"/>
@@ -4145,7 +4269,7 @@
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
       <c r="B128" s="27"/>
       <c r="C128" s="20"/>
@@ -4157,7 +4281,7 @@
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
       <c r="B129" s="27"/>
       <c r="C129" s="20"/>
@@ -4169,7 +4293,7 @@
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="29"/>
       <c r="B130" s="27"/>
       <c r="C130" s="20"/>
@@ -4181,7 +4305,7 @@
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
       <c r="B131" s="27"/>
       <c r="C131" s="20"/>
@@ -4193,7 +4317,7 @@
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
       <c r="B132" s="27"/>
       <c r="C132" s="20"/>
@@ -4205,7 +4329,7 @@
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="29"/>
       <c r="B133" s="27"/>
       <c r="C133" s="20"/>
@@ -4217,7 +4341,7 @@
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="29"/>
       <c r="B134" s="27"/>
       <c r="C134" s="20"/>
@@ -4229,7 +4353,7 @@
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
       <c r="B135" s="27"/>
       <c r="C135" s="20"/>
@@ -4241,7 +4365,7 @@
       <c r="I135" s="20"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
       <c r="B136" s="27"/>
       <c r="C136" s="20"/>
@@ -4253,7 +4377,7 @@
       <c r="I136" s="20"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
       <c r="B137" s="27"/>
       <c r="C137" s="20"/>
@@ -4265,7 +4389,7 @@
       <c r="I137" s="20"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="29"/>
       <c r="B138" s="27"/>
       <c r="C138" s="20"/>
@@ -4277,7 +4401,7 @@
       <c r="I138" s="20"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
       <c r="B139" s="27"/>
       <c r="C139" s="20"/>
@@ -4289,7 +4413,7 @@
       <c r="I139" s="20"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="29"/>
       <c r="B140" s="27"/>
       <c r="C140" s="20"/>
@@ -4301,7 +4425,7 @@
       <c r="I140" s="20"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="29"/>
       <c r="B141" s="27"/>
       <c r="C141" s="20"/>
@@ -4313,7 +4437,7 @@
       <c r="I141" s="20"/>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="29"/>
       <c r="B142" s="27"/>
       <c r="C142" s="20"/>
@@ -4325,7 +4449,7 @@
       <c r="I142" s="20"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="29"/>
       <c r="B143" s="27"/>
       <c r="C143" s="20"/>
@@ -4337,7 +4461,7 @@
       <c r="I143" s="20"/>
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="29"/>
       <c r="B144" s="27"/>
       <c r="C144" s="20"/>
@@ -4349,7 +4473,7 @@
       <c r="I144" s="20"/>
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="29"/>
       <c r="B145" s="27"/>
       <c r="C145" s="20"/>
@@ -4361,7 +4485,7 @@
       <c r="I145" s="20"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="29"/>
       <c r="B146" s="27"/>
       <c r="C146" s="20"/>
@@ -4373,7 +4497,7 @@
       <c r="I146" s="20"/>
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="29"/>
       <c r="B147" s="27"/>
       <c r="C147" s="20"/>
@@ -4385,7 +4509,7 @@
       <c r="I147" s="20"/>
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="29"/>
       <c r="B148" s="27"/>
       <c r="C148" s="20"/>
@@ -4397,7 +4521,7 @@
       <c r="I148" s="20"/>
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="29"/>
       <c r="B149" s="27"/>
       <c r="C149" s="20"/>
@@ -4409,7 +4533,7 @@
       <c r="I149" s="20"/>
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="29"/>
       <c r="B150" s="27"/>
       <c r="C150" s="20"/>
@@ -4421,7 +4545,7 @@
       <c r="I150" s="20"/>
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="29"/>
       <c r="B151" s="27"/>
       <c r="C151" s="20"/>
@@ -4433,7 +4557,7 @@
       <c r="I151" s="20"/>
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="29"/>
       <c r="B152" s="27"/>
       <c r="C152" s="20"/>
@@ -4445,7 +4569,7 @@
       <c r="I152" s="20"/>
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="29"/>
       <c r="B153" s="27"/>
       <c r="C153" s="20"/>
@@ -4457,7 +4581,7 @@
       <c r="I153" s="20"/>
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="29"/>
       <c r="B154" s="27"/>
       <c r="C154" s="20"/>
@@ -4469,7 +4593,7 @@
       <c r="I154" s="20"/>
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="29"/>
       <c r="B155" s="27"/>
       <c r="C155" s="20"/>
@@ -4481,7 +4605,7 @@
       <c r="I155" s="20"/>
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="29"/>
       <c r="B156" s="27"/>
       <c r="C156" s="20"/>
@@ -4493,7 +4617,7 @@
       <c r="I156" s="20"/>
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="29"/>
       <c r="B157" s="27"/>
       <c r="C157" s="20"/>
@@ -4505,7 +4629,7 @@
       <c r="I157" s="20"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="29"/>
       <c r="B158" s="27"/>
       <c r="C158" s="20"/>
@@ -4517,7 +4641,7 @@
       <c r="I158" s="20"/>
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="29"/>
       <c r="B159" s="27"/>
       <c r="C159" s="20"/>
@@ -4529,7 +4653,7 @@
       <c r="I159" s="20"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="29"/>
       <c r="B160" s="27"/>
       <c r="C160" s="20"/>
@@ -4541,7 +4665,7 @@
       <c r="I160" s="20"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="29"/>
       <c r="B161" s="27"/>
       <c r="C161" s="20"/>
@@ -4553,7 +4677,7 @@
       <c r="I161" s="20"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="29"/>
       <c r="B162" s="27"/>
       <c r="C162" s="20"/>
@@ -4565,7 +4689,7 @@
       <c r="I162" s="20"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="29"/>
       <c r="B163" s="27"/>
       <c r="C163" s="20"/>
@@ -4577,7 +4701,7 @@
       <c r="I163" s="20"/>
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="29"/>
       <c r="B164" s="27"/>
       <c r="C164" s="20"/>
@@ -4589,7 +4713,7 @@
       <c r="I164" s="20"/>
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="29"/>
       <c r="B165" s="27"/>
       <c r="C165" s="20"/>
@@ -4601,7 +4725,7 @@
       <c r="I165" s="20"/>
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="29"/>
       <c r="B166" s="27"/>
       <c r="C166" s="20"/>
@@ -4613,7 +4737,7 @@
       <c r="I166" s="20"/>
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="29"/>
       <c r="B167" s="27"/>
       <c r="C167" s="20"/>
@@ -4625,7 +4749,7 @@
       <c r="I167" s="20"/>
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="29"/>
       <c r="B168" s="27"/>
       <c r="C168" s="20"/>
@@ -4637,7 +4761,7 @@
       <c r="I168" s="20"/>
       <c r="J168" s="20"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="29"/>
       <c r="B169" s="27"/>
       <c r="C169" s="20"/>
@@ -4649,7 +4773,7 @@
       <c r="I169" s="20"/>
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="29"/>
       <c r="B170" s="27"/>
       <c r="C170" s="20"/>
@@ -4661,7 +4785,7 @@
       <c r="I170" s="20"/>
       <c r="J170" s="20"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="29"/>
       <c r="B171" s="27"/>
       <c r="C171" s="20"/>
@@ -4673,7 +4797,7 @@
       <c r="I171" s="20"/>
       <c r="J171" s="20"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="29"/>
       <c r="B172" s="27"/>
       <c r="C172" s="20"/>
@@ -4685,7 +4809,7 @@
       <c r="I172" s="20"/>
       <c r="J172" s="20"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="29"/>
       <c r="B173" s="27"/>
       <c r="C173" s="20"/>
@@ -4697,7 +4821,7 @@
       <c r="I173" s="20"/>
       <c r="J173" s="20"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="29"/>
       <c r="B174" s="27"/>
       <c r="C174" s="20"/>
@@ -4709,7 +4833,7 @@
       <c r="I174" s="20"/>
       <c r="J174" s="20"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="29"/>
       <c r="B175" s="27"/>
       <c r="C175" s="20"/>
@@ -4721,7 +4845,7 @@
       <c r="I175" s="20"/>
       <c r="J175" s="20"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="29"/>
       <c r="B176" s="27"/>
       <c r="C176" s="20"/>
@@ -4733,7 +4857,7 @@
       <c r="I176" s="20"/>
       <c r="J176" s="20"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="29"/>
       <c r="B177" s="27"/>
       <c r="C177" s="20"/>
@@ -4745,7 +4869,7 @@
       <c r="I177" s="20"/>
       <c r="J177" s="20"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="29"/>
       <c r="B178" s="27"/>
       <c r="C178" s="20"/>
@@ -4757,7 +4881,7 @@
       <c r="I178" s="20"/>
       <c r="J178" s="20"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="29"/>
       <c r="B179" s="27"/>
       <c r="C179" s="20"/>
@@ -4769,7 +4893,7 @@
       <c r="I179" s="20"/>
       <c r="J179" s="20"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="29"/>
       <c r="B180" s="27"/>
       <c r="C180" s="20"/>
@@ -4781,7 +4905,7 @@
       <c r="I180" s="20"/>
       <c r="J180" s="20"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="29"/>
       <c r="B181" s="27"/>
       <c r="C181" s="20"/>
@@ -4793,7 +4917,7 @@
       <c r="I181" s="20"/>
       <c r="J181" s="20"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="29"/>
       <c r="B182" s="27"/>
       <c r="C182" s="20"/>
@@ -4805,7 +4929,7 @@
       <c r="I182" s="20"/>
       <c r="J182" s="20"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="29"/>
       <c r="B183" s="27"/>
       <c r="C183" s="20"/>
@@ -4817,7 +4941,7 @@
       <c r="I183" s="20"/>
       <c r="J183" s="20"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="29"/>
       <c r="B184" s="27"/>
       <c r="C184" s="20"/>
@@ -4829,7 +4953,7 @@
       <c r="I184" s="20"/>
       <c r="J184" s="20"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="29"/>
       <c r="B185" s="27"/>
       <c r="C185" s="20"/>
@@ -4841,7 +4965,7 @@
       <c r="I185" s="20"/>
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="29"/>
       <c r="B186" s="27"/>
       <c r="C186" s="20"/>
@@ -4853,7 +4977,7 @@
       <c r="I186" s="20"/>
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="29"/>
       <c r="B187" s="27"/>
       <c r="C187" s="20"/>
@@ -4865,7 +4989,7 @@
       <c r="I187" s="20"/>
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="29"/>
       <c r="B188" s="27"/>
       <c r="C188" s="20"/>
@@ -4877,7 +5001,7 @@
       <c r="I188" s="20"/>
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="29"/>
       <c r="B189" s="27"/>
       <c r="C189" s="20"/>
@@ -4889,7 +5013,7 @@
       <c r="I189" s="20"/>
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="29"/>
       <c r="B190" s="27"/>
       <c r="C190" s="20"/>
@@ -4901,7 +5025,7 @@
       <c r="I190" s="20"/>
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="29"/>
       <c r="B191" s="27"/>
       <c r="C191" s="20"/>
@@ -4913,7 +5037,7 @@
       <c r="I191" s="20"/>
       <c r="J191" s="20"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="29"/>
       <c r="B192" s="27"/>
       <c r="C192" s="20"/>
@@ -4925,7 +5049,7 @@
       <c r="I192" s="20"/>
       <c r="J192" s="20"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="29"/>
       <c r="B193" s="27"/>
       <c r="C193" s="20"/>
@@ -4937,7 +5061,7 @@
       <c r="I193" s="20"/>
       <c r="J193" s="20"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="29"/>
       <c r="B194" s="27"/>
       <c r="C194" s="20"/>
@@ -4949,7 +5073,7 @@
       <c r="I194" s="20"/>
       <c r="J194" s="20"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="29"/>
       <c r="B195" s="27"/>
       <c r="C195" s="20"/>
@@ -4961,7 +5085,7 @@
       <c r="I195" s="20"/>
       <c r="J195" s="20"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="29"/>
       <c r="B196" s="27"/>
       <c r="C196" s="20"/>
@@ -4973,7 +5097,7 @@
       <c r="I196" s="20"/>
       <c r="J196" s="20"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="29"/>
       <c r="B197" s="27"/>
       <c r="C197" s="20"/>
@@ -4985,7 +5109,7 @@
       <c r="I197" s="20"/>
       <c r="J197" s="20"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="29"/>
       <c r="B198" s="27"/>
       <c r="C198" s="20"/>
@@ -4997,7 +5121,7 @@
       <c r="I198" s="20"/>
       <c r="J198" s="20"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="29"/>
       <c r="B199" s="27"/>
       <c r="C199" s="20"/>
@@ -5009,7 +5133,7 @@
       <c r="I199" s="20"/>
       <c r="J199" s="20"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="29"/>
       <c r="B200" s="27"/>
       <c r="C200" s="20"/>
@@ -5021,7 +5145,7 @@
       <c r="I200" s="20"/>
       <c r="J200" s="20"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="29"/>
       <c r="B201" s="27"/>
       <c r="C201" s="20"/>
@@ -5033,7 +5157,7 @@
       <c r="I201" s="20"/>
       <c r="J201" s="20"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="29"/>
       <c r="B202" s="27"/>
       <c r="C202" s="20"/>
@@ -5045,7 +5169,7 @@
       <c r="I202" s="20"/>
       <c r="J202" s="20"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="29"/>
       <c r="B203" s="27"/>
       <c r="C203" s="20"/>
@@ -5057,7 +5181,7 @@
       <c r="I203" s="20"/>
       <c r="J203" s="20"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="29"/>
       <c r="B204" s="27"/>
       <c r="C204" s="20"/>
@@ -5069,7 +5193,7 @@
       <c r="I204" s="20"/>
       <c r="J204" s="20"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="29"/>
       <c r="B205" s="27"/>
       <c r="C205" s="20"/>
@@ -5081,7 +5205,7 @@
       <c r="I205" s="20"/>
       <c r="J205" s="20"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="29"/>
       <c r="B206" s="27"/>
       <c r="C206" s="20"/>
@@ -5093,7 +5217,7 @@
       <c r="I206" s="20"/>
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="29"/>
       <c r="B207" s="27"/>
       <c r="C207" s="20"/>
@@ -5105,7 +5229,7 @@
       <c r="I207" s="20"/>
       <c r="J207" s="20"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="29"/>
       <c r="B208" s="27"/>
       <c r="C208" s="20"/>
@@ -5117,7 +5241,7 @@
       <c r="I208" s="20"/>
       <c r="J208" s="20"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="29"/>
       <c r="B209" s="27"/>
       <c r="C209" s="20"/>
@@ -5129,7 +5253,7 @@
       <c r="I209" s="20"/>
       <c r="J209" s="20"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="29"/>
       <c r="B210" s="27"/>
       <c r="C210" s="20"/>
@@ -5141,7 +5265,7 @@
       <c r="I210" s="20"/>
       <c r="J210" s="20"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="29"/>
       <c r="B211" s="27"/>
       <c r="C211" s="20"/>
@@ -5153,7 +5277,7 @@
       <c r="I211" s="20"/>
       <c r="J211" s="20"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="29"/>
       <c r="B212" s="27"/>
       <c r="C212" s="20"/>
@@ -5165,7 +5289,7 @@
       <c r="I212" s="20"/>
       <c r="J212" s="20"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="29"/>
       <c r="B213" s="27"/>
       <c r="C213" s="20"/>
@@ -5177,7 +5301,7 @@
       <c r="I213" s="20"/>
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="29"/>
       <c r="B214" s="27"/>
       <c r="C214" s="20"/>
@@ -5189,7 +5313,7 @@
       <c r="I214" s="20"/>
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="29"/>
       <c r="B215" s="27"/>
       <c r="C215" s="20"/>
@@ -5201,7 +5325,7 @@
       <c r="I215" s="20"/>
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="29"/>
       <c r="B216" s="27"/>
       <c r="C216" s="20"/>
@@ -5213,7 +5337,7 @@
       <c r="I216" s="20"/>
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="29"/>
       <c r="B217" s="27"/>
       <c r="C217" s="20"/>
@@ -5225,7 +5349,7 @@
       <c r="I217" s="20"/>
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="29"/>
       <c r="B218" s="27"/>
       <c r="C218" s="20"/>
@@ -5237,7 +5361,7 @@
       <c r="I218" s="20"/>
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="29"/>
       <c r="B219" s="27"/>
       <c r="C219" s="20"/>
@@ -5249,7 +5373,7 @@
       <c r="I219" s="20"/>
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="29"/>
       <c r="B220" s="27"/>
       <c r="C220" s="20"/>
@@ -5261,7 +5385,7 @@
       <c r="I220" s="20"/>
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="29"/>
       <c r="B221" s="27"/>
       <c r="C221" s="20"/>
@@ -5273,7 +5397,7 @@
       <c r="I221" s="20"/>
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="29"/>
       <c r="B222" s="27"/>
       <c r="C222" s="20"/>
@@ -5285,7 +5409,7 @@
       <c r="I222" s="20"/>
       <c r="J222" s="20"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="29"/>
       <c r="B223" s="27"/>
       <c r="C223" s="20"/>
@@ -5297,7 +5421,7 @@
       <c r="I223" s="20"/>
       <c r="J223" s="20"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="29"/>
       <c r="B224" s="27"/>
       <c r="C224" s="20"/>
@@ -5309,7 +5433,7 @@
       <c r="I224" s="20"/>
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="29"/>
       <c r="B225" s="27"/>
       <c r="C225" s="20"/>
@@ -5321,7 +5445,7 @@
       <c r="I225" s="20"/>
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="29"/>
       <c r="B226" s="27"/>
       <c r="C226" s="20"/>
@@ -5333,7 +5457,7 @@
       <c r="I226" s="20"/>
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="29"/>
       <c r="B227" s="27"/>
       <c r="C227" s="20"/>
@@ -5345,7 +5469,7 @@
       <c r="I227" s="20"/>
       <c r="J227" s="20"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="29"/>
       <c r="B228" s="27"/>
       <c r="C228" s="20"/>
@@ -5357,7 +5481,7 @@
       <c r="I228" s="20"/>
       <c r="J228" s="20"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="29"/>
       <c r="B229" s="27"/>
       <c r="C229" s="20"/>
@@ -5369,7 +5493,7 @@
       <c r="I229" s="20"/>
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="29"/>
       <c r="B230" s="27"/>
       <c r="C230" s="20"/>
@@ -5381,7 +5505,7 @@
       <c r="I230" s="20"/>
       <c r="J230" s="20"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="29"/>
       <c r="B231" s="27"/>
       <c r="C231" s="20"/>
@@ -5393,7 +5517,7 @@
       <c r="I231" s="20"/>
       <c r="J231" s="20"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="29"/>
       <c r="B232" s="27"/>
       <c r="C232" s="20"/>
@@ -5405,7 +5529,7 @@
       <c r="I232" s="20"/>
       <c r="J232" s="20"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="29"/>
       <c r="B233" s="27"/>
       <c r="C233" s="20"/>
@@ -5417,7 +5541,7 @@
       <c r="I233" s="20"/>
       <c r="J233" s="20"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="29"/>
       <c r="B234" s="27"/>
       <c r="C234" s="20"/>
@@ -5429,7 +5553,7 @@
       <c r="I234" s="20"/>
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="29"/>
       <c r="B235" s="27"/>
       <c r="C235" s="20"/>
@@ -5441,7 +5565,7 @@
       <c r="I235" s="20"/>
       <c r="J235" s="20"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="29"/>
       <c r="B236" s="27"/>
       <c r="C236" s="20"/>
@@ -5453,7 +5577,7 @@
       <c r="I236" s="20"/>
       <c r="J236" s="20"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="29"/>
       <c r="B237" s="27"/>
       <c r="C237" s="20"/>
@@ -5465,7 +5589,7 @@
       <c r="I237" s="20"/>
       <c r="J237" s="20"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="29"/>
       <c r="B238" s="27"/>
       <c r="C238" s="20"/>
@@ -5477,7 +5601,7 @@
       <c r="I238" s="20"/>
       <c r="J238" s="20"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="29"/>
       <c r="B239" s="27"/>
       <c r="C239" s="20"/>
@@ -5489,7 +5613,7 @@
       <c r="I239" s="20"/>
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="29"/>
       <c r="B240" s="27"/>
       <c r="C240" s="20"/>
@@ -5501,7 +5625,7 @@
       <c r="I240" s="20"/>
       <c r="J240" s="20"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="29"/>
       <c r="B241" s="27"/>
       <c r="C241" s="20"/>
@@ -5513,7 +5637,7 @@
       <c r="I241" s="20"/>
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="29"/>
       <c r="B242" s="27"/>
       <c r="C242" s="20"/>
@@ -5525,7 +5649,7 @@
       <c r="I242" s="20"/>
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="29"/>
       <c r="B243" s="27"/>
       <c r="C243" s="20"/>
@@ -5537,7 +5661,7 @@
       <c r="I243" s="20"/>
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="29"/>
       <c r="B244" s="27"/>
       <c r="C244" s="20"/>
@@ -5549,7 +5673,7 @@
       <c r="I244" s="20"/>
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="29"/>
       <c r="B245" s="27"/>
       <c r="C245" s="20"/>
@@ -5561,7 +5685,7 @@
       <c r="I245" s="20"/>
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="29"/>
       <c r="B246" s="27"/>
       <c r="C246" s="20"/>
@@ -5573,7 +5697,7 @@
       <c r="I246" s="20"/>
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="29"/>
       <c r="B247" s="27"/>
       <c r="C247" s="20"/>
@@ -5585,7 +5709,7 @@
       <c r="I247" s="20"/>
       <c r="J247" s="20"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="29"/>
       <c r="B248" s="27"/>
       <c r="C248" s="20"/>
@@ -5597,7 +5721,7 @@
       <c r="I248" s="20"/>
       <c r="J248" s="20"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="29"/>
       <c r="B249" s="27"/>
       <c r="C249" s="20"/>
@@ -5609,7 +5733,7 @@
       <c r="I249" s="20"/>
       <c r="J249" s="20"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="29"/>
       <c r="B250" s="27"/>
       <c r="C250" s="20"/>
@@ -5621,7 +5745,7 @@
       <c r="I250" s="20"/>
       <c r="J250" s="20"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="29"/>
       <c r="B251" s="27"/>
       <c r="C251" s="20"/>
@@ -5633,7 +5757,7 @@
       <c r="I251" s="20"/>
       <c r="J251" s="20"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="29"/>
       <c r="B252" s="27"/>
       <c r="C252" s="20"/>
@@ -5645,7 +5769,7 @@
       <c r="I252" s="20"/>
       <c r="J252" s="20"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="29"/>
       <c r="B253" s="27"/>
       <c r="C253" s="20"/>
@@ -5657,7 +5781,7 @@
       <c r="I253" s="20"/>
       <c r="J253" s="20"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="29"/>
       <c r="B254" s="27"/>
       <c r="C254" s="20"/>
@@ -5669,7 +5793,7 @@
       <c r="I254" s="20"/>
       <c r="J254" s="20"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="29"/>
       <c r="B255" s="27"/>
       <c r="C255" s="20"/>
@@ -5681,7 +5805,7 @@
       <c r="I255" s="20"/>
       <c r="J255" s="20"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="29"/>
       <c r="B256" s="27"/>
       <c r="C256" s="20"/>
@@ -5693,7 +5817,7 @@
       <c r="I256" s="20"/>
       <c r="J256" s="20"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="29"/>
       <c r="B257" s="27"/>
       <c r="C257" s="20"/>
@@ -5705,7 +5829,7 @@
       <c r="I257" s="20"/>
       <c r="J257" s="20"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="29"/>
       <c r="B258" s="27"/>
       <c r="C258" s="20"/>
@@ -5717,7 +5841,7 @@
       <c r="I258" s="20"/>
       <c r="J258" s="20"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="29"/>
       <c r="B259" s="27"/>
       <c r="C259" s="20"/>
@@ -5729,7 +5853,7 @@
       <c r="I259" s="20"/>
       <c r="J259" s="20"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="29"/>
       <c r="B260" s="27"/>
       <c r="C260" s="20"/>
@@ -5741,7 +5865,7 @@
       <c r="I260" s="20"/>
       <c r="J260" s="20"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="29"/>
       <c r="B261" s="27"/>
       <c r="C261" s="20"/>
@@ -5753,7 +5877,7 @@
       <c r="I261" s="20"/>
       <c r="J261" s="20"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="29"/>
       <c r="B262" s="27"/>
       <c r="C262" s="20"/>
@@ -5765,7 +5889,7 @@
       <c r="I262" s="20"/>
       <c r="J262" s="20"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="29"/>
       <c r="B263" s="27"/>
       <c r="C263" s="20"/>
@@ -5777,7 +5901,7 @@
       <c r="I263" s="20"/>
       <c r="J263" s="20"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="29"/>
       <c r="B264" s="27"/>
       <c r="C264" s="20"/>
@@ -5789,7 +5913,7 @@
       <c r="I264" s="20"/>
       <c r="J264" s="20"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="29"/>
       <c r="B265" s="27"/>
       <c r="C265" s="20"/>
@@ -5801,7 +5925,7 @@
       <c r="I265" s="20"/>
       <c r="J265" s="20"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="29"/>
       <c r="B266" s="27"/>
       <c r="C266" s="20"/>
@@ -5813,7 +5937,7 @@
       <c r="I266" s="20"/>
       <c r="J266" s="20"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="29"/>
       <c r="B267" s="27"/>
       <c r="C267" s="20"/>
@@ -5825,7 +5949,7 @@
       <c r="I267" s="20"/>
       <c r="J267" s="20"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="29"/>
       <c r="B268" s="27"/>
       <c r="C268" s="20"/>
@@ -5837,7 +5961,7 @@
       <c r="I268" s="20"/>
       <c r="J268" s="20"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="29"/>
       <c r="B269" s="27"/>
       <c r="C269" s="20"/>
@@ -5849,7 +5973,7 @@
       <c r="I269" s="20"/>
       <c r="J269" s="20"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="29"/>
       <c r="B270" s="27"/>
       <c r="C270" s="20"/>
@@ -5861,7 +5985,7 @@
       <c r="I270" s="20"/>
       <c r="J270" s="20"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="29"/>
       <c r="B271" s="27"/>
       <c r="C271" s="20"/>
@@ -5873,7 +5997,7 @@
       <c r="I271" s="20"/>
       <c r="J271" s="20"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="29"/>
       <c r="B272" s="27"/>
       <c r="C272" s="20"/>
@@ -5885,7 +6009,7 @@
       <c r="I272" s="20"/>
       <c r="J272" s="20"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="29"/>
       <c r="B273" s="27"/>
       <c r="C273" s="20"/>
@@ -5897,7 +6021,7 @@
       <c r="I273" s="20"/>
       <c r="J273" s="20"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="29"/>
       <c r="B274" s="27"/>
       <c r="C274" s="20"/>
@@ -5909,7 +6033,7 @@
       <c r="I274" s="20"/>
       <c r="J274" s="20"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="29"/>
       <c r="B275" s="27"/>
       <c r="C275" s="20"/>
@@ -5921,7 +6045,7 @@
       <c r="I275" s="20"/>
       <c r="J275" s="20"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="29"/>
       <c r="B276" s="27"/>
       <c r="C276" s="20"/>
@@ -5933,7 +6057,7 @@
       <c r="I276" s="20"/>
       <c r="J276" s="20"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="29"/>
       <c r="B277" s="27"/>
       <c r="C277" s="20"/>
@@ -5945,7 +6069,7 @@
       <c r="I277" s="20"/>
       <c r="J277" s="20"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="29"/>
       <c r="B278" s="27"/>
       <c r="C278" s="20"/>
@@ -5957,7 +6081,7 @@
       <c r="I278" s="20"/>
       <c r="J278" s="20"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="29"/>
       <c r="B279" s="27"/>
       <c r="C279" s="20"/>
@@ -5969,7 +6093,7 @@
       <c r="I279" s="20"/>
       <c r="J279" s="20"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="29"/>
       <c r="B280" s="27"/>
       <c r="C280" s="20"/>
@@ -5981,7 +6105,7 @@
       <c r="I280" s="20"/>
       <c r="J280" s="20"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="29"/>
       <c r="B281" s="27"/>
       <c r="C281" s="20"/>
@@ -5993,7 +6117,7 @@
       <c r="I281" s="20"/>
       <c r="J281" s="20"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="29"/>
       <c r="B282" s="27"/>
       <c r="C282" s="20"/>
@@ -6005,7 +6129,7 @@
       <c r="I282" s="20"/>
       <c r="J282" s="20"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="29"/>
       <c r="B283" s="27"/>
       <c r="C283" s="20"/>
@@ -6017,7 +6141,7 @@
       <c r="I283" s="20"/>
       <c r="J283" s="20"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="29"/>
       <c r="B284" s="27"/>
       <c r="C284" s="20"/>
@@ -6029,7 +6153,7 @@
       <c r="I284" s="20"/>
       <c r="J284" s="20"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="29"/>
       <c r="B285" s="27"/>
       <c r="C285" s="20"/>
@@ -6041,7 +6165,7 @@
       <c r="I285" s="20"/>
       <c r="J285" s="20"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="29"/>
       <c r="B286" s="27"/>
       <c r="C286" s="20"/>
@@ -6053,7 +6177,7 @@
       <c r="I286" s="20"/>
       <c r="J286" s="20"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="29"/>
       <c r="B287" s="27"/>
       <c r="C287" s="20"/>
@@ -6065,7 +6189,7 @@
       <c r="I287" s="20"/>
       <c r="J287" s="20"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="29"/>
       <c r="B288" s="27"/>
       <c r="C288" s="20"/>
@@ -6077,7 +6201,7 @@
       <c r="I288" s="20"/>
       <c r="J288" s="20"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="29"/>
       <c r="B289" s="27"/>
       <c r="C289" s="20"/>
@@ -6089,7 +6213,7 @@
       <c r="I289" s="20"/>
       <c r="J289" s="20"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="29"/>
       <c r="B290" s="27"/>
       <c r="C290" s="20"/>
@@ -6101,7 +6225,7 @@
       <c r="I290" s="20"/>
       <c r="J290" s="20"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="29"/>
       <c r="B291" s="27"/>
       <c r="C291" s="20"/>
@@ -6113,7 +6237,7 @@
       <c r="I291" s="20"/>
       <c r="J291" s="20"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="29"/>
       <c r="B292" s="27"/>
       <c r="C292" s="20"/>
@@ -6125,7 +6249,7 @@
       <c r="I292" s="20"/>
       <c r="J292" s="20"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="29"/>
       <c r="B293" s="27"/>
       <c r="C293" s="20"/>
@@ -6137,7 +6261,7 @@
       <c r="I293" s="20"/>
       <c r="J293" s="20"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="29"/>
       <c r="B294" s="27"/>
       <c r="C294" s="20"/>
@@ -6149,7 +6273,7 @@
       <c r="I294" s="20"/>
       <c r="J294" s="20"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="29"/>
       <c r="B295" s="27"/>
       <c r="C295" s="20"/>
@@ -6161,7 +6285,7 @@
       <c r="I295" s="20"/>
       <c r="J295" s="20"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="29"/>
       <c r="B296" s="27"/>
       <c r="C296" s="20"/>
@@ -6173,7 +6297,7 @@
       <c r="I296" s="20"/>
       <c r="J296" s="20"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="29"/>
       <c r="B297" s="27"/>
       <c r="C297" s="20"/>
@@ -6185,7 +6309,7 @@
       <c r="I297" s="20"/>
       <c r="J297" s="20"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="29"/>
       <c r="B298" s="27"/>
       <c r="C298" s="20"/>
@@ -6197,7 +6321,7 @@
       <c r="I298" s="20"/>
       <c r="J298" s="20"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="29"/>
       <c r="B299" s="27"/>
       <c r="C299" s="20"/>
@@ -6209,7 +6333,7 @@
       <c r="I299" s="20"/>
       <c r="J299" s="20"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="29"/>
       <c r="B300" s="27"/>
       <c r="C300" s="20"/>
@@ -6224,10 +6348,10 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K29 H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K29 H1:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"level 1,level 2,level 3,level 4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>".,..,…,….,…..,…..."</formula1>
     </dataValidation>
   </dataValidations>
